--- a/source/data/scientific_and_special_libraries/id_und_name_bibliothek.xlsx
+++ b/source/data/scientific_and_special_libraries/id_und_name_bibliothek.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23715" windowHeight="10050"/>
+    <workbookView xWindow="120" yWindow="100" windowWidth="24460" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
   <si>
     <t>Wirtschaftskammer Wien</t>
   </si>
@@ -315,12 +320,240 @@
   <si>
     <t>ID</t>
   </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Josefsplatz 1, 1015 Wien</t>
+  </si>
+  <si>
+    <t>Museumgasse 2, 9020 Klagenfurt am Wörthersee</t>
+  </si>
+  <si>
+    <t>Landhaus Boulevard 1, 3100 St. Pölten</t>
+  </si>
+  <si>
+    <t>Kalchberggasse 2, 8010 Graz</t>
+  </si>
+  <si>
+    <t>Fluherstraße 4, 6900 Bregenz</t>
+  </si>
+  <si>
+    <t>Rathaus, Felderstraße, 1082</t>
+  </si>
+  <si>
+    <t>Universitätsstraße 65-67, 9020 Klagenfurt am Wörthersee</t>
+  </si>
+  <si>
+    <t>Sonnensteinstraße 11-13, 4040 Linz</t>
+  </si>
+  <si>
+    <t>Altenbergerstraße 69, 4040 Linz</t>
+  </si>
+  <si>
+    <t>Mirabellplatz 1, 5020 Salzburg</t>
+  </si>
+  <si>
+    <t>Kapitelgasse 4-6, 5020 Salzburg</t>
+  </si>
+  <si>
+    <t>Franz Josef-Straße 18, 8700 Leoben</t>
+  </si>
+  <si>
+    <t>Rechbauerstraße 12, 8010 Graz</t>
+  </si>
+  <si>
+    <t>Leonhardstraße 15, 8010 Graz</t>
+  </si>
+  <si>
+    <t>Innrain 50, 6020 Innsbruck</t>
+  </si>
+  <si>
+    <t>Spitalgasse 23, 1090 Wien</t>
+  </si>
+  <si>
+    <t>Karlsplatz 13, 1040 Wien</t>
+  </si>
+  <si>
+    <t>Oskar Kokoschka-Platz 2, 1010 Wien</t>
+  </si>
+  <si>
+    <t>Gregor-Mendel-Straße 33, 1180 Wien</t>
+  </si>
+  <si>
+    <t>Anton-von-Webern-Platz 1, 1030 Wien</t>
+  </si>
+  <si>
+    <t>Universitätsring 1, 1010 Wien</t>
+  </si>
+  <si>
+    <t>Veterinärpl. 1, 1210 Wien</t>
+  </si>
+  <si>
+    <t>Welthandelsplatz 1 1, 1020 Wien</t>
+  </si>
+  <si>
+    <t>Campus 1, 7000 Eisenstadt</t>
+  </si>
+  <si>
+    <t>Europastraße 4, 9524 Villach</t>
+  </si>
+  <si>
+    <t>Matthias Corvinus-Straße 15, 3100 St. Pölten</t>
+  </si>
+  <si>
+    <t>Alte Poststraße 149, 8020 Graz</t>
+  </si>
+  <si>
+    <t>Wohlmutstraße 22, 1020 Wien</t>
+  </si>
+  <si>
+    <t>Favoritenstraße 226, 1100 Wien</t>
+  </si>
+  <si>
+    <t>Währinger Gürtel 97, 1180 Wien</t>
+  </si>
+  <si>
+    <t>Thomas-Alva-Edison-Straße 1, 7000 Eisenstadt</t>
+  </si>
+  <si>
+    <t>Hubertusstraße 1, 9020 Klagenfurt am Wörthersee</t>
+  </si>
+  <si>
+    <t>Kaplanhofstraße 40, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Akademiestraße 23, 5020 Salzburg</t>
+  </si>
+  <si>
+    <t>Pastorstraße 7, 6020 Innsbruck</t>
+  </si>
+  <si>
+    <t>Angermayergasse 1, 1130 Wien</t>
+  </si>
+  <si>
+    <t>Grenzackerstraße 18, 1100 Wien</t>
+  </si>
+  <si>
+    <t>Glorietteallee 2, 7000 Eisenstadt</t>
+  </si>
+  <si>
+    <t>Bethlehemstraße 20, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Bürglstein 1 – 7, 5360 St. Wolfgang</t>
+  </si>
+  <si>
+    <t>Reichenfeldgasse 9, 6800 Feldkirch</t>
+  </si>
+  <si>
+    <t>Johannesgasse 4A, 1010 Wien-Innere Stadt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. -Oktober-Straße 24, 9020 Klagenfurt am Wörthersee </t>
+  </si>
+  <si>
+    <t>Rennbahnstraße 29, 3109 St. Pölten</t>
+  </si>
+  <si>
+    <t>Herrengasse 23, 1010 Wien</t>
+  </si>
+  <si>
+    <t>Marxergasse 2, 4. Stock, 1030 Wien</t>
+  </si>
+  <si>
+    <t>Museumstraße 7, 1070 Wien</t>
+  </si>
+  <si>
+    <t>Roßauer Lände 1, 1090 Wien</t>
+  </si>
+  <si>
+    <t>Stubenring 1, 1010 Wien</t>
+  </si>
+  <si>
+    <t>Dr.-Karl-Renner-Ring 3, 1017 Wien</t>
+  </si>
+  <si>
+    <t>Adalbert-Stifter-Platz 1, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Anzengruberstraße 19, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Museumstraße 15, 6020 Innsbruck</t>
+  </si>
+  <si>
+    <t>Schlossergasse 8, 6800 Feldkirch</t>
+  </si>
+  <si>
+    <t>Seckendorff-Gudent-Weg 8, 1130 Wien</t>
+  </si>
+  <si>
+    <t>Sensengasse 3, 1090 Wien</t>
+  </si>
+  <si>
+    <t>Seidengasse 13, 1070 Wien</t>
+  </si>
+  <si>
+    <t>Doktor-Ignaz-Seipel-Platz 2, 1010 Wien</t>
+  </si>
+  <si>
+    <t>Arsenal 20, 1030 Wien</t>
+  </si>
+  <si>
+    <t>Schultergasse 5/15, 1010 Wien</t>
+  </si>
+  <si>
+    <t>Rahlgasse 3, 1060 Wien</t>
+  </si>
+  <si>
+    <t>Gasometer D, Guglgasse 14, 1110</t>
+  </si>
+  <si>
+    <t>Bürgergasse 2, 8010 Graz</t>
+  </si>
+  <si>
+    <t>Severin Schreiber-Gasse 1+3, 1180 Wien</t>
+  </si>
+  <si>
+    <t>Tandelmarktgasse 5, 1020 Wien</t>
+  </si>
+  <si>
+    <t>Stubenring 8-10, 1010 Wien</t>
+  </si>
+  <si>
+    <t>Schillerplatz 2, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Universitätsplatz 3, 8010 Graz</t>
+  </si>
+  <si>
+    <t>Auenbruggerplatz 2, 8036 Graz</t>
+  </si>
+  <si>
+    <t>Ortweinplatz 1, 8010 Graz</t>
+  </si>
+  <si>
+    <t>Lange Gasse 2, 8010 Graz</t>
+  </si>
+  <si>
+    <t>Tarviser Straße 30, 9020 Klagenfurt am Wörthersee</t>
+  </si>
+  <si>
+    <t>Schmerlingplatz 11, 1011 Wien</t>
+  </si>
+  <si>
+    <t>Dresdner Straße 87, 1200 Wien</t>
+  </si>
+  <si>
+    <t>Josefstädter Straße 39, 1080 Wien</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +584,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -371,38 +610,39 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,11 +659,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard_05_B2.1" xfId="1"/>
     <cellStyle name="Standard_05_B2.2" xfId="2"/>
+    <cellStyle name="Standard_05_B2.3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -722,635 +982,872 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C31" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="21">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C44" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="21">
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C46" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="21">
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C51" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="31">
       <c r="A52" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C55" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C56" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="22">
       <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C64" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="21">
       <c r="A65" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B77">
         <v>76</v>
       </c>
+      <c r="C77" s="11" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1360,9 +1857,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1372,8 +1874,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/source/data/scientific_and_special_libraries/id_und_name_bibliothek.xlsx
+++ b/source/data/scientific_and_special_libraries/id_und_name_bibliothek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="100" windowWidth="24460" windowHeight="13440"/>
+    <workbookView xWindow="720" yWindow="0" windowWidth="24460" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="171">
   <si>
     <t>Wirtschaftskammer Wien</t>
   </si>
@@ -339,9 +339,6 @@
     <t>Fluherstraße 4, 6900 Bregenz</t>
   </si>
   <si>
-    <t>Rathaus, Felderstraße, 1082</t>
-  </si>
-  <si>
     <t>Universitätsstraße 65-67, 9020 Klagenfurt am Wörthersee</t>
   </si>
   <si>
@@ -547,13 +544,67 @@
   </si>
   <si>
     <t>Josefstädter Straße 39, 1080 Wien</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Lng</t>
+  </si>
+  <si>
+    <t>Felderstraße 1A, 1010 Wien</t>
+  </si>
+  <si>
+    <t>Gemeinde</t>
+  </si>
+  <si>
+    <t>Wien</t>
+  </si>
+  <si>
+    <t>Klagenfurt am Wörthersee</t>
+  </si>
+  <si>
+    <t>St. Pölten</t>
+  </si>
+  <si>
+    <t>Linz</t>
+  </si>
+  <si>
+    <t>Graz</t>
+  </si>
+  <si>
+    <t>Bregenz</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
+    <t>Leoben</t>
+  </si>
+  <si>
+    <t>Innsbruck</t>
+  </si>
+  <si>
+    <t>Eisenstadt</t>
+  </si>
+  <si>
+    <t>Villach</t>
+  </si>
+  <si>
+    <t>St. Wolfgang</t>
+  </si>
+  <si>
+    <t>Feldkirch</t>
+  </si>
+  <si>
+    <t>Wien-Innere Stadt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +640,29 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -636,13 +710,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,8 +798,56 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="50">
+    <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard_05_B2.1" xfId="1"/>
     <cellStyle name="Standard_05_B2.2" xfId="2"/>
@@ -982,19 +1150,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1004,8 +1174,17 @@
       <c r="C1" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1015,8 +1194,17 @@
       <c r="C2" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="17">
+        <v>482052527</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1.6365125E+16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1026,8 +1214,17 @@
       <c r="C3" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="17">
+        <v>46621039</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1.43125721999999E+16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1037,8 +1234,17 @@
       <c r="C4" s="11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="17">
+        <v>482019842</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1563376530000000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1046,10 +1252,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>144</v>
+      </c>
+      <c r="D5" s="17">
+        <v>482972427</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1.42909002999999E+16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1274,17 @@
       <c r="C6" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="17">
+        <v>4706833750000000</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1.54385165999999E+16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1070,8 +1294,17 @@
       <c r="C7" s="11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="17">
+        <v>474937772</v>
+      </c>
+      <c r="E7" s="17">
+        <v>9745284099999930</v>
+      </c>
+      <c r="F7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1079,10 +1312,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1090,10 +1326,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1101,10 +1340,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1112,10 +1354,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1123,10 +1368,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1134,10 +1382,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1145,10 +1396,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>145</v>
+      </c>
+      <c r="F14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1156,10 +1410,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>146</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1167,10 +1424,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1178,10 +1438,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1189,10 +1452,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -1200,10 +1466,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1211,10 +1480,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1222,10 +1494,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1233,10 +1508,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1244,10 +1522,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>96</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -1255,10 +1536,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>97</v>
+      </c>
+      <c r="F24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1266,10 +1550,13 @@
         <v>24</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1277,10 +1564,13 @@
         <v>25</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>99</v>
+      </c>
+      <c r="F26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1288,10 +1578,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
@@ -1299,10 +1592,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>101</v>
+      </c>
+      <c r="F28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
@@ -1310,10 +1606,13 @@
         <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>102</v>
+      </c>
+      <c r="F29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -1321,10 +1620,13 @@
         <v>29</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>103</v>
+      </c>
+      <c r="F30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
@@ -1332,10 +1634,13 @@
         <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="21">
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="21">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -1343,10 +1648,13 @@
         <v>31</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>104</v>
+      </c>
+      <c r="F32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
@@ -1354,10 +1662,13 @@
         <v>32</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>105</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
@@ -1365,10 +1676,13 @@
         <v>33</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>106</v>
+      </c>
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
@@ -1376,10 +1690,13 @@
         <v>34</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
@@ -1387,10 +1704,13 @@
         <v>35</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>108</v>
+      </c>
+      <c r="F36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -1398,10 +1718,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="F37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
@@ -1409,10 +1732,13 @@
         <v>37</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>110</v>
+      </c>
+      <c r="F38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -1420,10 +1746,13 @@
         <v>38</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>111</v>
+      </c>
+      <c r="F39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
@@ -1431,10 +1760,13 @@
         <v>39</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>148</v>
+      </c>
+      <c r="F40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -1442,10 +1774,13 @@
         <v>40</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>147</v>
+      </c>
+      <c r="F41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
@@ -1453,10 +1788,13 @@
         <v>41</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>112</v>
+      </c>
+      <c r="F42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
@@ -1464,10 +1802,13 @@
         <v>42</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>113</v>
+      </c>
+      <c r="F43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
@@ -1475,10 +1816,13 @@
         <v>43</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="21">
+        <v>114</v>
+      </c>
+      <c r="F44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="21">
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
@@ -1486,10 +1830,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>115</v>
+      </c>
+      <c r="F45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
@@ -1497,10 +1844,13 @@
         <v>45</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="21">
+        <v>149</v>
+      </c>
+      <c r="F46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="21">
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
@@ -1508,10 +1858,13 @@
         <v>46</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>116</v>
+      </c>
+      <c r="F47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
@@ -1519,10 +1872,13 @@
         <v>47</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>117</v>
+      </c>
+      <c r="F48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
@@ -1530,10 +1886,13 @@
         <v>48</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>118</v>
+      </c>
+      <c r="F49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
@@ -1541,10 +1900,13 @@
         <v>49</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>119</v>
+      </c>
+      <c r="F50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
@@ -1552,10 +1914,13 @@
         <v>50</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="31">
+        <v>120</v>
+      </c>
+      <c r="F51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="31">
       <c r="A52" s="6" t="s">
         <v>52</v>
       </c>
@@ -1563,10 +1928,13 @@
         <v>51</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>121</v>
+      </c>
+      <c r="F52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
@@ -1574,10 +1942,13 @@
         <v>52</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>122</v>
+      </c>
+      <c r="F53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
@@ -1585,10 +1956,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>123</v>
+      </c>
+      <c r="F54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
@@ -1596,10 +1970,13 @@
         <v>54</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>124</v>
+      </c>
+      <c r="F55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
@@ -1607,10 +1984,13 @@
         <v>55</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="22">
+        <v>125</v>
+      </c>
+      <c r="F56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="22">
       <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
@@ -1618,10 +1998,13 @@
         <v>56</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>126</v>
+      </c>
+      <c r="F57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
@@ -1629,10 +2012,13 @@
         <v>57</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>150</v>
+      </c>
+      <c r="F58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
@@ -1640,10 +2026,13 @@
         <v>58</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>151</v>
+      </c>
+      <c r="F59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
@@ -1651,10 +2040,13 @@
         <v>59</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>127</v>
+      </c>
+      <c r="F60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
@@ -1662,10 +2054,13 @@
         <v>60</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>128</v>
+      </c>
+      <c r="F61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
@@ -1673,10 +2068,13 @@
         <v>61</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>129</v>
+      </c>
+      <c r="F62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
@@ -1684,10 +2082,13 @@
         <v>62</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>130</v>
+      </c>
+      <c r="F63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
@@ -1695,10 +2096,13 @@
         <v>63</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="21">
+        <v>131</v>
+      </c>
+      <c r="F64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="21">
       <c r="A65" s="5" t="s">
         <v>65</v>
       </c>
@@ -1706,10 +2110,13 @@
         <v>64</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>132</v>
+      </c>
+      <c r="F65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
@@ -1717,10 +2124,13 @@
         <v>65</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>133</v>
+      </c>
+      <c r="F66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
@@ -1728,10 +2138,13 @@
         <v>66</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>152</v>
+      </c>
+      <c r="F67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
@@ -1739,10 +2152,13 @@
         <v>67</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="7" t="s">
         <v>69</v>
       </c>
@@ -1750,10 +2166,13 @@
         <v>68</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>135</v>
+      </c>
+      <c r="F69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="8" t="s">
         <v>70</v>
       </c>
@@ -1761,10 +2180,13 @@
         <v>69</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
@@ -1772,10 +2194,13 @@
         <v>70</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>137</v>
+      </c>
+      <c r="F71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
         <v>72</v>
       </c>
@@ -1783,10 +2208,13 @@
         <v>71</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
@@ -1794,10 +2222,13 @@
         <v>72</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>139</v>
+      </c>
+      <c r="F73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="8" t="s">
         <v>74</v>
       </c>
@@ -1805,10 +2236,13 @@
         <v>73</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
@@ -1816,10 +2250,13 @@
         <v>74</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>141</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
@@ -1827,10 +2264,13 @@
         <v>75</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>142</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="4" t="s">
         <v>0</v>
       </c>
@@ -1838,11 +2278,15 @@
         <v>76</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/source/data/scientific_and_special_libraries/id_und_name_bibliothek.xlsx
+++ b/source/data/scientific_and_special_libraries/id_und_name_bibliothek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="0" windowWidth="24460" windowHeight="13440"/>
+    <workbookView xWindow="9700" yWindow="680" windowWidth="24460" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -80,30 +80,6 @@
     <t>Universität für Musik und darstellende Kunst Graz</t>
   </si>
   <si>
-    <r>
-      <t>Universitäts- und Landesbibliothek Tirol</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Medizinische Universität Wien</t>
   </si>
   <si>
@@ -140,9 +116,6 @@
     <t>FH Graz</t>
   </si>
   <si>
-    <t>FH JOANNEUM Bibliotheks- und                                  Informationszentrum</t>
-  </si>
-  <si>
     <t>Fachhochschule des bfi Wien</t>
   </si>
   <si>
@@ -167,9 +140,6 @@
     <t>Kirchlich Pädagogische Hochschule Graz</t>
   </si>
   <si>
-    <t>Pädagogische Hoschschule Steiermark</t>
-  </si>
-  <si>
     <t>Pädagogische Hochschule Tirol</t>
   </si>
   <si>
@@ -179,15 +149,9 @@
     <t>Pädagogische Hochschule Wien Campusbibliothek</t>
   </si>
   <si>
-    <t>Joseph Haydn Konservatorium des                         Landes Burgenland</t>
-  </si>
-  <si>
     <t>Diözesanbibliothek Klagenfurt</t>
   </si>
   <si>
-    <t>Diözesan- und Universitätsbibliothek der                 Katholischen Privat-Universität Linz</t>
-  </si>
-  <si>
     <t>Bundeseinrichtung für Erwachsenenbildung</t>
   </si>
   <si>
@@ -200,33 +164,6 @@
     <t>Amtsbibliothek des Landesschulrates für Kärnten</t>
   </si>
   <si>
-    <t>Bundesstaatliche Pädagogische                                                                                                                                                                                                                                                                                                                                                Bibliothek beim Landesschulrat für NÖ                                                                                                                                                                                                                                                                                                                                              (inkl. Exposituren Baden und Hollabrunn)</t>
-  </si>
-  <si>
-    <r>
-      <t>Administrative Bibliothek des Bundes</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Bundesanstalt für Agrarwirtschaft</t>
   </si>
   <si>
@@ -236,30 +173,6 @@
     <t>BMLVS Österreichische Militärbibliothek</t>
   </si>
   <si>
-    <r>
-      <t>Clusterbibliothek - Europäisches Dokumentations-zentrum (EDZ)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Oberster Gerichtshof</t>
   </si>
   <si>
@@ -281,10 +194,6 @@
     <t>Stadtbibliothek Feldkirch</t>
   </si>
   <si>
-    <t>Bundesforschungs- und Ausbildungszentrum für 
-Wald, Naturgefahren und Landschaft</t>
-  </si>
-  <si>
     <t>C3-Bibliothek für Entwicklungspolitik</t>
   </si>
   <si>
@@ -598,13 +507,40 @@
   </si>
   <si>
     <t>Wien-Innere Stadt</t>
+  </si>
+  <si>
+    <t>Universitäts- und Landesbibliothek Tirol</t>
+  </si>
+  <si>
+    <t>FH JOANNEUM Bibliotheks- und Informationszentrum</t>
+  </si>
+  <si>
+    <t>Joseph Haydn Konservatorium des Landes Burgenland</t>
+  </si>
+  <si>
+    <t>Administrative Bibliothek des Bundes</t>
+  </si>
+  <si>
+    <t>Pädagogische Hochschule Steiermark</t>
+  </si>
+  <si>
+    <t>Diözesan-/Universitätsbib. Kath. Privat-Universität Linz</t>
+  </si>
+  <si>
+    <t>Bundesstaatl. Päd. Bib. beim Landesschulrat für NÖ</t>
+  </si>
+  <si>
+    <t>Clusterbib. - Europ. Dokumentationszentrum (EDZ)</t>
+  </si>
+  <si>
+    <t>Bundesforschungsz. Wald, Naturgefahren u. Landschaft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,13 +559,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -665,12 +594,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -710,59 +645,227 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,14 +897,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="218">
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="9" builtinId="9" hidden="1"/>
@@ -825,6 +939,90 @@
     <cellStyle name="Besuchter Link" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="217" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -848,6 +1046,90 @@
     <cellStyle name="Link" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="216" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard_05_B2.1" xfId="1"/>
     <cellStyle name="Standard_05_B2.2" xfId="2"/>
@@ -1152,14 +1434,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="15" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1169,19 +1451,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1192,16 +1474,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="17">
+        <v>70</v>
+      </c>
+      <c r="D2" s="16">
         <v>482052527</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>1.6365125E+16</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1212,16 +1494,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="17">
+        <v>71</v>
+      </c>
+      <c r="D3" s="16">
         <v>46621039</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>1.43125721999999E+16</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1232,16 +1514,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="17">
+        <v>72</v>
+      </c>
+      <c r="D4" s="16">
         <v>482019842</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>1563376530000000</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1252,16 +1534,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="17">
+        <v>135</v>
+      </c>
+      <c r="D5" s="16">
         <v>482972427</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>1.42909002999999E+16</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1272,16 +1554,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="17">
+        <v>73</v>
+      </c>
+      <c r="D6" s="16">
         <v>4706833750000000</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>1.54385165999999E+16</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1292,16 +1574,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="17">
+        <v>74</v>
+      </c>
+      <c r="D7" s="16">
         <v>474937772</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>9745284099999930</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1312,10 +1594,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1326,10 +1608,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1340,10 +1622,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1354,10 +1636,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1368,10 +1650,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1382,10 +1664,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1396,10 +1678,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1410,10 +1692,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1424,10 +1706,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1438,10 +1720,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1452,822 +1734,822 @@
         <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="19" customFormat="1">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s">
-        <v>157</v>
+      <c r="B22" s="19">
+        <v>21</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F30" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="21">
-      <c r="A32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="19" customFormat="1">
+      <c r="A32" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="19">
         <v>31</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" t="s">
-        <v>161</v>
+      <c r="C32" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F38" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="19" customFormat="1">
+      <c r="A42" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="19">
         <v>41</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" t="s">
-        <v>165</v>
+      <c r="C42" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F43" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="21">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="5" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" t="s">
         <v>149</v>
       </c>
-      <c r="F46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="21">
-      <c r="A47" s="5" t="s">
-        <v>47</v>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F47" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F49" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F51" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="31">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="6" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="4" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F53" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F54" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F55" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="22">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F57" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F58" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F59" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F60" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="21">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="5" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F67" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F69" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F70" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F71" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F73" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>157</v>
+        <v>132</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>157</v>
+        <v>133</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2278,10 +2560,10 @@
         <v>76</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>157</v>
+        <v>134</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
